--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-26.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1529"/>
+  <dimension ref="A1:H1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42275,10 +42275,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42301,10 +42299,8 @@
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42331,10 +42327,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42361,10 +42355,8 @@
       </c>
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42391,10 +42383,8 @@
       </c>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42421,10 +42411,8 @@
       </c>
       <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42451,10 +42439,8 @@
       </c>
       <c r="F1296" t="inlineStr"/>
       <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42489,10 +42475,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -42527,10 +42511,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -42561,10 +42543,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42595,10 +42575,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1301">
@@ -42621,10 +42599,8 @@
       <c r="E1301" t="inlineStr"/>
       <c r="F1301" t="inlineStr"/>
       <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1302">
@@ -42659,10 +42635,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1303">
@@ -42697,10 +42671,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42731,10 +42703,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42769,10 +42739,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42803,10 +42771,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42833,10 +42799,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42863,10 +42827,8 @@
       </c>
       <c r="F1308" t="inlineStr"/>
       <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42897,10 +42859,8 @@
         </is>
       </c>
       <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -42927,10 +42887,8 @@
       </c>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42957,10 +42915,8 @@
       </c>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42983,10 +42939,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -43031,10 +42985,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1315">
@@ -43065,10 +43017,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1316">
@@ -43099,10 +43049,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -43133,10 +43081,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -43167,10 +43113,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43205,10 +43149,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43239,10 +43181,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43273,10 +43213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43295,10 +43233,8 @@
       <c r="E1322" t="inlineStr"/>
       <c r="F1322" t="inlineStr"/>
       <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43343,10 +43279,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43377,10 +43311,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43411,10 +43343,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43445,10 +43375,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43475,10 +43403,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43505,10 +43431,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43539,10 +43463,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43573,10 +43495,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43603,10 +43523,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43633,10 +43551,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43663,10 +43579,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43689,10 +43603,8 @@
       <c r="E1335" t="inlineStr"/>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1336">
@@ -43723,10 +43635,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43757,10 +43667,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43791,10 +43699,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43825,10 +43731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43859,10 +43763,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43889,10 +43791,8 @@
       </c>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43915,10 +43815,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43945,10 +43843,8 @@
           <t>-27.2%</t>
         </is>
       </c>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43975,10 +43871,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43997,10 +43891,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -44027,10 +43919,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -44057,10 +43947,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -44079,10 +43967,8 @@
       <c r="E1348" t="inlineStr"/>
       <c r="F1348" t="inlineStr"/>
       <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44123,10 +44009,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1351">
@@ -44153,10 +44037,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44187,10 +44069,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1353">
@@ -44221,10 +44101,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44255,10 +44133,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44289,10 +44165,8 @@
           <t>50.0K</t>
         </is>
       </c>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1356">
@@ -44323,10 +44197,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44357,10 +44229,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44391,10 +44261,8 @@
           <t>20K</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44421,10 +44289,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44451,10 +44317,8 @@
       </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44481,10 +44345,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44515,10 +44377,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1363">
@@ -44549,10 +44409,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -44583,10 +44441,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44609,10 +44465,8 @@
       <c r="E1365" t="inlineStr"/>
       <c r="F1365" t="inlineStr"/>
       <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44643,10 +44497,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44677,10 +44529,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44711,10 +44561,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -44745,10 +44593,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44779,10 +44625,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1371">
@@ -44813,10 +44657,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44847,10 +44689,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44881,10 +44721,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44911,10 +44749,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44941,10 +44777,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44971,10 +44805,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -45001,10 +44833,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -45035,10 +44865,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -45069,10 +44897,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45117,10 +44943,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45151,10 +44975,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1383">
@@ -45185,10 +45007,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45219,10 +45039,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45253,10 +45071,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45283,10 +45099,8 @@
       </c>
       <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45317,10 +45131,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45347,10 +45159,8 @@
       </c>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45377,10 +45187,8 @@
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45407,10 +45215,8 @@
       </c>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45437,10 +45243,8 @@
       </c>
       <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45467,10 +45271,8 @@
       </c>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45497,10 +45299,8 @@
       </c>
       <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45527,10 +45327,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45557,10 +45355,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45587,10 +45383,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45621,10 +45415,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45655,10 +45447,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45689,10 +45479,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45723,10 +45511,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45753,10 +45539,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45783,10 +45567,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45813,10 +45595,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45847,10 +45627,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45881,10 +45659,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -45911,10 +45687,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -45945,10 +45719,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -45979,10 +45751,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46013,10 +45783,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1410">
@@ -46047,10 +45815,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1411">
@@ -46073,10 +45839,8 @@
       <c r="E1411" t="inlineStr"/>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46107,10 +45871,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46133,10 +45895,8 @@
       <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46163,10 +45923,8 @@
       </c>
       <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46189,10 +45947,8 @@
       <c r="E1415" t="inlineStr"/>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46233,10 +45989,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46267,10 +46021,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46301,10 +46053,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46335,10 +46085,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -46369,10 +46117,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46399,10 +46145,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46429,10 +46173,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46459,10 +46201,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46493,10 +46233,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46527,10 +46265,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1427">
@@ -46561,10 +46297,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46587,10 +46321,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -46617,10 +46349,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46643,10 +46373,8 @@
       <c r="E1430" t="inlineStr"/>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46669,10 +46397,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46699,10 +46425,8 @@
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46733,10 +46457,8 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46767,10 +46489,8 @@
           <t>47.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46801,10 +46521,8 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46835,10 +46553,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46869,10 +46585,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46899,10 +46613,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -46933,10 +46645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -46967,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47001,10 +46709,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47035,10 +46741,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -47069,10 +46773,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47103,10 +46805,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47129,10 +46829,8 @@
       <c r="E1445" t="inlineStr"/>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47163,10 +46861,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47193,10 +46889,8 @@
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1448">
@@ -47223,10 +46917,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47249,10 +46941,8 @@
       <c r="E1449" t="inlineStr"/>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47283,10 +46973,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -47313,10 +47001,8 @@
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -47339,10 +47025,8 @@
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -47369,10 +47053,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1454">
@@ -47395,10 +47077,8 @@
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -47421,10 +47101,8 @@
       <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -47447,10 +47125,8 @@
       <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -47473,10 +47149,8 @@
       <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
       <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -47499,10 +47173,8 @@
       <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -47525,10 +47197,8 @@
       <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -47555,10 +47225,8 @@
       </c>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -47585,10 +47253,8 @@
       </c>
       <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -47615,10 +47281,8 @@
       </c>
       <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -47645,10 +47309,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -47675,10 +47337,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -47705,10 +47365,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -47735,10 +47393,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -47769,10 +47425,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -47799,10 +47453,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -47833,10 +47485,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -47867,10 +47517,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1471">
@@ -47901,10 +47549,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -47935,10 +47581,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1473">
@@ -47969,10 +47613,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48003,10 +47645,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48037,10 +47677,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48071,10 +47709,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -48105,10 +47741,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1478">
@@ -48139,10 +47773,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1479">
@@ -48173,10 +47805,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48207,10 +47837,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -48245,10 +47873,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -48271,10 +47897,8 @@
       <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -48301,10 +47925,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -48327,10 +47949,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -48357,52 +47977,70 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>Economic Activity YoYNOV</t>
+        </is>
+      </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1487" t="inlineStr">
@@ -48414,29 +48052,29 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1488" t="inlineStr">
@@ -48448,199 +48086,199 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48652,1164 +48290,356 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1495" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1496" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1497" t="inlineStr"/>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1498" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1499" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="E1502" t="inlineStr"/>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+      <c r="G1502" t="inlineStr"/>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr"/>
+      <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E1504" t="inlineStr"/>
       <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1504" t="inlineStr"/>
+      <c r="H1504" t="inlineStr"/>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>Economic Activity MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>New Housing Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>New Housing Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr"/>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr"/>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H1529" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-26.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1505"/>
+  <dimension ref="A1:H1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,1340 +43240,1440 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr"/>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1324" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr"/>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H1325" t="n">
-        <v>3</v>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
+      <c r="A1326" t="inlineStr"/>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr"/>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1326" t="n">
-        <v>3</v>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1327" t="inlineStr"/>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1327" t="n">
-        <v>3</v>
+          <t>-27.2%</t>
+        </is>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1328" t="inlineStr"/>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>2.576%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="n">
-        <v>3</v>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1329" t="inlineStr"/>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr">
-        <is>
-          <t>2.223%</t>
-        </is>
-      </c>
+      <c r="E1329" t="inlineStr"/>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="n">
-        <v>3</v>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1330" t="inlineStr"/>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr"/>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr">
         <is>
-          <t>$9.5B</t>
-        </is>
-      </c>
-      <c r="H1330" t="n">
-        <v>3</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
+      <c r="A1331" t="inlineStr"/>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr"/>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H1331" t="n">
-        <v>3</v>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1332" t="inlineStr"/>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr">
-        <is>
-          <t>2.489%</t>
-        </is>
-      </c>
+      <c r="E1332" t="inlineStr"/>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="n">
-        <v>3</v>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr"/>
+      <c r="C1333" t="inlineStr"/>
       <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr">
-        <is>
-          <t>2.691%</t>
-        </is>
-      </c>
+      <c r="E1333" t="inlineStr"/>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="n">
-        <v>3</v>
-      </c>
+      <c r="H1333" t="inlineStr"/>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr"/>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="n">
-        <v>3</v>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="n">
-        <v>2</v>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr"/>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1336" t="n">
-        <v>3</v>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr"/>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1337" t="n">
-        <v>3</v>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr"/>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H1338" t="n">
-        <v>3</v>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr"/>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1339" t="n">
-        <v>3</v>
+          <t>50.0K</t>
+        </is>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr"/>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1340" t="n">
-        <v>3</v>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr"/>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="n">
-        <v>3</v>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1342">
-      <c r="A1342" t="inlineStr"/>
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr"/>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="n">
-        <v>3</v>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1343">
-      <c r="A1343" t="inlineStr"/>
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr"/>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr">
-        <is>
-          <t>-27.2%</t>
-        </is>
-      </c>
-      <c r="H1343" t="n">
-        <v>3</v>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1344">
-      <c r="A1344" t="inlineStr"/>
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr"/>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H1344" t="n">
-        <v>3</v>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1345">
-      <c r="A1345" t="inlineStr"/>
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="n">
-        <v>3</v>
+      <c r="H1345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1346">
-      <c r="A1346" t="inlineStr"/>
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr"/>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H1346" t="n">
-        <v>3</v>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1347">
-      <c r="A1347" t="inlineStr"/>
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr"/>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H1347" t="n">
-        <v>3</v>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1348">
-      <c r="A1348" t="inlineStr"/>
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
       <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="n">
-        <v>3</v>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>-94</t>
+        </is>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
+          <t>05:30 AM</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
       <c r="D1349" t="inlineStr"/>
       <c r="E1349" t="inlineStr"/>
       <c r="F1349" t="inlineStr"/>
       <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr"/>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="n">
-        <v>3</v>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr"/>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="n">
-        <v>3</v>
+      <c r="G1351" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H1351" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr"/>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="H1352" t="n">
-        <v>2</v>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H1352" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr"/>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1353" t="n">
-        <v>1</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1353" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr"/>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H1354" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr"/>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>50.0K</t>
-        </is>
-      </c>
-      <c r="H1355" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1355" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr"/>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1356" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H1356" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1357" t="inlineStr"/>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1357" t="n">
-        <v>3</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr"/>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1358" t="n">
-        <v>3</v>
+      <c r="G1358" t="inlineStr"/>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr"/>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="n">
-        <v>3</v>
+      <c r="H1359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1360" t="inlineStr"/>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="n">
-        <v>3</v>
+      <c r="H1360" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr"/>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="n">
-        <v>3</v>
+      <c r="H1361" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr"/>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H1362" t="n">
-        <v>2</v>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr"/>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H1363" t="n">
-        <v>1</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1364" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr"/>
+      <c r="C1364" t="inlineStr"/>
       <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1364" t="inlineStr"/>
       <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr">
-        <is>
-          <t>-94</t>
-        </is>
-      </c>
-      <c r="H1364" t="n">
-        <v>3</v>
-      </c>
+      <c r="G1364" t="inlineStr"/>
+      <c r="H1364" t="inlineStr"/>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>£-11.25B</t>
+        </is>
+      </c>
       <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="n">
-        <v>3</v>
+      <c r="G1365" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
+      <c r="H1365" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr"/>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1366" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr"/>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H1367" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1367" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr"/>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1368" t="n">
-        <v>1</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1368" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -44584,207 +44684,209 @@
       <c r="D1369" t="inlineStr"/>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1369" t="n">
-        <v>2</v>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H1369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr"/>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1370" t="n">
-        <v>2</v>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr"/>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1371" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr"/>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1372" t="n">
-        <v>3</v>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr"/>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.639%</t>
         </is>
       </c>
       <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H1373" t="n">
-        <v>3</v>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr"/>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.541%</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="n">
-        <v>3</v>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr"/>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="n">
-        <v>3</v>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
@@ -44794,25 +44896,27 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr"/>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="n">
-        <v>3</v>
+      <c r="H1376" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
@@ -44822,328 +44926,348 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr"/>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="n">
-        <v>3</v>
+      <c r="H1377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr"/>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1378" t="n">
-        <v>2</v>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1379" t="n">
-        <v>3</v>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/17</t>
+        </is>
+      </c>
       <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
       <c r="F1380" t="inlineStr"/>
       <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr"/>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
-      <c r="H1381" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr"/>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1382" t="n">
-        <v>2</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H1382" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr"/>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1383" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr"/>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1384" t="n">
-        <v>3</v>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="H1384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1385" t="n">
-        <v>3</v>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>2.64%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="n">
-        <v>3</v>
+      <c r="H1386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>4.686%</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1387" t="n">
-        <v>3</v>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -45154,1749 +45278,1827 @@
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="n">
-        <v>3</v>
+      <c r="G1388" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
+      <c r="H1388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>2.639%</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="n">
-        <v>3</v>
+      <c r="G1389" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H1389" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>2.541%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="n">
-        <v>3</v>
+      <c r="H1390" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="n">
-        <v>3</v>
+      <c r="G1391" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="n">
-        <v>2</v>
+      <c r="G1392" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H1392" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="n">
-        <v>3</v>
+      <c r="G1393" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
+      <c r="H1393" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="n">
-        <v>3</v>
+      <c r="G1394" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H1394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>575.6</t>
-        </is>
-      </c>
+      <c r="E1395" t="inlineStr"/>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="n">
-        <v>3</v>
+      <c r="H1395" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="n">
-        <v>3</v>
+      <c r="G1396" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="H1396" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
-      <c r="E1397" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1397" t="inlineStr"/>
       <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1397" t="n">
-        <v>3</v>
+      <c r="G1397" t="inlineStr"/>
+      <c r="H1397" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="H1398" t="n">
-        <v>3</v>
+      <c r="G1398" t="inlineStr"/>
+      <c r="H1398" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr"/>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.3544%</t>
         </is>
       </c>
       <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1399" t="n">
-        <v>3</v>
+      <c r="G1399" t="inlineStr"/>
+      <c r="H1399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1400" t="inlineStr">
-        <is>
-          <t>Raw Materials Prices YoYDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr"/>
+      <c r="C1400" t="inlineStr"/>
       <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E1400" t="inlineStr"/>
       <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H1400" t="n">
-        <v>3</v>
-      </c>
+      <c r="G1400" t="inlineStr"/>
+      <c r="H1400" t="inlineStr"/>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="n">
-        <v>3</v>
+      <c r="H1401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr"/>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>4.210%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="n">
-        <v>3</v>
+      <c r="G1402" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H1402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr"/>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="n">
-        <v>3</v>
+      <c r="G1403" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1404" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1405" t="n">
-        <v>2</v>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
+      <c r="H1405" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="n">
-        <v>2</v>
+      <c r="H1406" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1407" t="n">
-        <v>2</v>
+      <c r="G1407" t="inlineStr"/>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1408" t="n">
-        <v>3</v>
+      <c r="G1408" t="inlineStr"/>
+      <c r="H1408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1409" t="n">
-        <v>1</v>
+          <t>81.5</t>
+        </is>
+      </c>
+      <c r="H1409" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="H1410" t="n">
-        <v>2</v>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H1410" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="n">
-        <v>3</v>
+      <c r="G1411" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H1411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H1412" t="n">
-        <v>3</v>
+      <c r="G1412" t="inlineStr"/>
+      <c r="H1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="n">
-        <v>3</v>
+      <c r="H1413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="E1414" t="inlineStr"/>
       <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="n">
-        <v>3</v>
+      <c r="H1414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr"/>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="n">
-        <v>3</v>
+      <c r="H1415" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Building Permits YoYNOV</t>
+        </is>
+      </c>
       <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
+      <c r="H1416" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="n">
-        <v>3</v>
+      <c r="G1417" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="H1417" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1418" t="n">
-        <v>3</v>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="H1418" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1419" t="n">
-        <v>3</v>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="H1419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1420" t="n">
-        <v>3</v>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="H1420" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
-        </is>
-      </c>
-      <c r="H1421" t="n">
-        <v>3</v>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="H1421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="n">
-        <v>3</v>
+      <c r="H1422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="n">
-        <v>3</v>
+      <c r="G1423" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="n">
-        <v>3</v>
+      <c r="G1424" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H1424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>81.5</t>
-        </is>
-      </c>
-      <c r="H1425" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1425" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr"/>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H1426" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr"/>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H1427" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H1427" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="n">
-        <v>3</v>
+      <c r="G1428" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H1428" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="n">
-        <v>3</v>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="n">
-        <v>3</v>
+      <c r="G1430" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="n">
-        <v>3</v>
+      <c r="H1431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="n">
-        <v>3</v>
+      <c r="H1432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1433" t="inlineStr"/>
       <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="H1433" t="n">
-        <v>2</v>
+      <c r="G1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="H1434" t="n">
-        <v>2</v>
+          <t>-14.7</t>
+        </is>
+      </c>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="H1435" t="n">
-        <v>3</v>
+      <c r="G1435" t="inlineStr"/>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
+      <c r="E1436" t="inlineStr"/>
       <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="H1436" t="n">
-        <v>2</v>
+      <c r="G1436" t="inlineStr"/>
+      <c r="H1436" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H1437" t="n">
-        <v>2</v>
+      <c r="G1437" t="inlineStr"/>
+      <c r="H1437" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr">
-        <is>
-          <t>$94.43B</t>
-        </is>
-      </c>
+      <c r="E1438" t="inlineStr"/>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="n">
-        <v>3</v>
+      <c r="H1438" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1439" t="inlineStr"/>
       <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1439" t="n">
-        <v>3</v>
+      <c r="G1439" t="inlineStr"/>
+      <c r="H1439" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1440" t="inlineStr"/>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1440" t="n">
-        <v>3</v>
+      <c r="G1440" t="inlineStr"/>
+      <c r="H1440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
+      <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1441" t="n">
-        <v>3</v>
+      <c r="G1441" t="inlineStr"/>
+      <c r="H1441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1442" t="n">
-        <v>3</v>
+      <c r="G1442" t="inlineStr"/>
+      <c r="H1442" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H1443" t="n">
-        <v>2</v>
+      <c r="G1443" t="inlineStr"/>
+      <c r="H1443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1444" t="n">
-        <v>2</v>
+      <c r="G1444" t="inlineStr"/>
+      <c r="H1444" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="n">
-        <v>2</v>
+      <c r="H1445" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1446" t="n">
-        <v>3</v>
+      <c r="G1446" t="inlineStr"/>
+      <c r="H1446" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="n">
-        <v>2</v>
+      <c r="H1447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
@@ -46906,25 +47108,27 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="n">
-        <v>3</v>
+      <c r="H1448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
@@ -46934,81 +47138,91 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>7.04%</t>
+        </is>
+      </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="n">
-        <v>3</v>
+      <c r="H1449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
-      <c r="H1450" t="n">
-        <v>2</v>
+      <c r="G1450" t="inlineStr"/>
+      <c r="H1450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="n">
-        <v>3</v>
+      <c r="G1451" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
@@ -47018,1097 +47232,1233 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>$6.83T</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="n">
-        <v>2</v>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="n">
-        <v>2</v>
+      <c r="G1453" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="n">
-        <v>3</v>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="H1454" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="n">
-        <v>3</v>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="H1455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="n">
-        <v>3</v>
+      <c r="G1456" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1456" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="n">
-        <v>3</v>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1457" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="n">
-        <v>3</v>
+      <c r="G1458" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H1458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="n">
-        <v>3</v>
+      <c r="G1459" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1459" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="n">
-        <v>3</v>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="H1460" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="n">
-        <v>3</v>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
+      <c r="H1461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="n">
-        <v>3</v>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H1462" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="n">
-        <v>3</v>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="n">
-        <v>3</v>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>7.04%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="n">
-        <v>3</v>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1465" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr">
-        <is>
-          <t>2.071%</t>
-        </is>
-      </c>
+      <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="n">
-        <v>3</v>
+      <c r="H1466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1467" t="n">
-        <v>3</v>
+      <c r="G1467" t="inlineStr"/>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A1468" t="inlineStr"/>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="n">
-        <v>3</v>
+      <c r="H1468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1469" t="inlineStr"/>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>BRL209.2B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="H1469" t="n">
-        <v>2</v>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr"/>
+      <c r="C1470" t="inlineStr"/>
       <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1470" t="inlineStr"/>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="H1470" t="n">
-        <v>2</v>
-      </c>
+      <c r="G1470" t="inlineStr"/>
+      <c r="H1470" t="inlineStr"/>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="H1471" t="n">
-        <v>3</v>
+          <t>58.8</t>
+        </is>
+      </c>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1472" t="n">
-        <v>1</v>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H1473" t="n">
-        <v>2</v>
+          <t>59.1</t>
+        </is>
+      </c>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="H1474" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1475" t="n">
-        <v>3</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="H1476" t="n">
-        <v>1</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="H1477" t="n">
-        <v>2</v>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H1478" t="n">
-        <v>2</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1479" t="n">
-        <v>3</v>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1480" t="n">
-        <v>3</v>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1481" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1481" t="n">
-        <v>1</v>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="H1481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="n">
-        <v>2</v>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="n">
-        <v>3</v>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1484">
-      <c r="A1484" t="inlineStr"/>
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="n">
-        <v>3</v>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1485" t="n">
-        <v>3</v>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48120,29 +48470,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48154,169 +48504,157 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
@@ -48328,71 +48666,63 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1496" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
@@ -48404,7 +48734,7 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -48414,35 +48744,31 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1498" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -48452,35 +48778,31 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1499" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48490,31 +48812,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48524,31 +48846,31 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48558,23 +48880,31 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48584,62 +48914,346 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr"/>
-      <c r="C1504" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+        </is>
+      </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalJAN</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalJAN</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJAN</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr"/>
+      <c r="E1510" t="inlineStr"/>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr"/>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr"/>
+      <c r="C1512" t="inlineStr"/>
+      <c r="D1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr"/>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="inlineStr"/>
+      <c r="H1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Industrial Profits (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr"/>
+      <c r="E1513" t="inlineStr">
+        <is>
           <t>-4.7%</t>
         </is>
       </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr">
         <is>
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
+      <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
         </is>
